--- a/src/test/resources/testdata/data.xlsx
+++ b/src/test/resources/testdata/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yerma\eclipse-workspace\HRMS\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FC92D9-6E29-4D28-9C30-229F192797E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8120EBE0-BB33-42D8-A6B3-8716D3C1F38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5424" yWindow="2256" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5424" yWindow="2256" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>FirstName</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Parkerstest</t>
+  </si>
+  <si>
+    <t>test123</t>
   </si>
 </sst>
 </file>
@@ -426,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +463,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -524,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D560D4-6C5E-4060-9658-F501D5988E73}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
